--- a/metadata/OtherViruses_known.xlsx
+++ b/metadata/OtherViruses_known.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/papers/OC_Figures/Old_Collections_Figures/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48710189-71BB-1C47-81C5-3263921C3C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA4DADB-2FDC-5A45-A264-72ED582507D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="620" windowWidth="27640" windowHeight="15640" xr2:uid="{11356379-1822-8248-BC5D-5ADEBFACB45F}"/>
+    <workbookView xWindow="33880" yWindow="1180" windowWidth="27640" windowHeight="15640" xr2:uid="{11356379-1822-8248-BC5D-5ADEBFACB45F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="46">
   <si>
     <t>year</t>
   </si>
@@ -168,6 +171,9 @@
   </si>
   <si>
     <t>Dansoman virus</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -212,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,17 +226,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -550,7 +546,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,16 +600,16 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>19</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>0.6</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>99.6</v>
       </c>
     </row>
@@ -633,16 +629,16 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>99.9</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>129.1</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>98.6</v>
       </c>
     </row>
@@ -662,18 +658,18 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <f>(98.4+97.2)/2</f>
         <v>97.800000000000011</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <f>(13.7+4.8)/2</f>
         <v>9.25</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>99.7</v>
       </c>
     </row>
@@ -693,18 +689,18 @@
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <f>(96.7+91.6+98.2)/3</f>
         <v>95.5</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <f>(4.6+3.6+6.8)/3</f>
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <f>(99.7+98.9+99.5)/3</f>
         <v>99.366666666666674</v>
       </c>
@@ -725,16 +721,16 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>95</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>8.5</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>99.7</v>
       </c>
     </row>
@@ -754,16 +750,16 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>12.6</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>0.31</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>99.6</v>
       </c>
     </row>
@@ -778,23 +774,23 @@
         <v>1004278</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <f>(97.2+100)/2</f>
         <v>98.6</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <f>(25.8+15.1)/2</f>
         <v>20.45</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <f>(99.3+99.6)/2</f>
         <v>99.449999999999989</v>
       </c>
@@ -810,22 +806,22 @@
         <v>1004278</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <f>(14.7+32.2+8.1)/3</f>
         <v>18.333333333333336</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>17.399999999999999</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <f>(96.8+99.4+95.2)/3</f>
         <v>97.133333333333326</v>
       </c>
@@ -841,21 +837,21 @@
         <v>1004278</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>106.4</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>99.2</v>
       </c>
     </row>
@@ -870,21 +866,21 @@
         <v>1004278</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>50</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>124.9</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>99.1</v>
       </c>
     </row>
@@ -899,84 +895,84 @@
         <v>1004278</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>99.9</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>99.7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>1915</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
         <v>1004279</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3">
         <f>(23.2+64.4+24.5)/3</f>
         <v>37.366666666666667</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <f>(6.26+1.7)/2</f>
         <v>3.98</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3">
         <f>(95.3+96.2+96.7)/3</f>
         <v>96.066666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>1915</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
         <v>1004281</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3">
         <f>(25.3+71.1+19.4)/3</f>
         <v>38.599999999999994</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <f>(0.54+0.84+2.26)/3</f>
         <v>1.2133333333333332</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3">
         <f>(94.5+97.8+97.3)/3</f>
         <v>96.533333333333346</v>
       </c>
@@ -997,16 +993,16 @@
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>61.7</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>1.24</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>95.8</v>
       </c>
     </row>
@@ -1026,18 +1022,18 @@
       <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <f>(31.9+30.5)/3</f>
         <v>20.8</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <f>(1.49+1.08)/2</f>
         <v>1.2850000000000001</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <f>(99.2+97.6+98.9)/3</f>
         <v>98.566666666666677</v>
       </c>
@@ -1058,16 +1054,16 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>26.1</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="3">
         <v>1.5</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="3">
         <v>99.2</v>
       </c>
     </row>
@@ -1087,18 +1083,18 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <f>(0+81.6+99.6)/3</f>
         <v>60.4</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <f>(7.8+7)/2</f>
         <v>7.4</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <f>(99.6+99.6)/2</f>
         <v>99.6</v>
       </c>
@@ -1119,16 +1115,16 @@
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>99.9</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>59.3</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="3">
         <v>99.5</v>
       </c>
     </row>
@@ -1148,18 +1144,18 @@
       <c r="E20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <f>(34.4+42.6+19+11.3)/10</f>
         <v>10.73</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <f>(1.2+0.4+0.59+1.45)/4</f>
         <v>0.90999999999999992</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <f>(100+99.9+99.6+99.8)/4</f>
         <v>99.825000000000003</v>
       </c>
@@ -1180,17 +1176,17 @@
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <f>(178+177)/2</f>
         <v>177.5</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>98.35</v>
       </c>
     </row>
@@ -1210,47 +1206,47 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="3">
         <v>300.8</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <v>97.9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>1963</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3">
         <f>(55.1+98.3+30.2)/3</f>
         <v>61.199999999999996</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="3">
         <f>(4.3+10.5+1.8)/3</f>
         <v>5.5333333333333341</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="7">
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="3">
         <f>(95+97.2+97.5)/3</f>
         <v>96.566666666666663</v>
       </c>
@@ -1271,16 +1267,16 @@
       <c r="E24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>77.3</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="3">
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="3">
         <v>99.1</v>
       </c>
     </row>
@@ -1300,18 +1296,18 @@
       <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="3">
         <f>(67.5+84.8+30.3)/3</f>
         <v>60.866666666666674</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="3">
         <f>(1.2+3.2+3.6)/3</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="3">
         <f>(96+94.8+96.3)/3</f>
         <v>95.7</v>
       </c>
@@ -1332,18 +1328,18 @@
       <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <f>(75+88.3+40.7)/3</f>
         <v>68</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <f>(1.1+3.6+1.9)/3</f>
         <v>2.1999999999999997</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="3">
         <f>(98.1+96.9+98)/3</f>
         <v>97.666666666666671</v>
       </c>
@@ -1364,47 +1360,47 @@
       <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="3">
         <v>40.51</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="3">
         <v>6.1</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="3">
         <v>99.7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>2010</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="3">
         <f>(85.2+96.5+52.8)/3</f>
         <v>78.166666666666671</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="3">
         <f>(9.3+2.6+7.6)/3</f>
         <v>6.5</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="3">
         <f>(99.5+98.8+99.2)/3</f>
         <v>99.166666666666671</v>
       </c>
@@ -1425,16 +1421,16 @@
       <c r="E29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>37.1</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="3">
         <v>0.68</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="3">
         <v>98.6</v>
       </c>
     </row>
@@ -1454,16 +1450,16 @@
       <c r="E30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <v>70.2</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="3">
         <v>99.2</v>
       </c>
     </row>
@@ -1483,16 +1479,16 @@
       <c r="E31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="3">
         <v>52.6</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="3">
         <v>6.8</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="3">
         <v>98.1</v>
       </c>
     </row>
@@ -1512,18 +1508,18 @@
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="3">
         <f>(88.6+99.3+56.8)/3</f>
         <v>81.566666666666663</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="3">
         <f>(19.1+52+32.1)/3</f>
         <v>34.4</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="3">
         <f>(98.4+98.3+98)/3</f>
         <v>98.233333333333334</v>
       </c>
@@ -1544,17 +1540,17 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="3">
         <f>(23.3+67.6+20.2)/3</f>
         <v>37.033333333333331</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="3">
         <v>1.67</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="3">
         <f>(95.8+92+97.2)/3</f>
         <v>95</v>
       </c>
@@ -1575,17 +1571,17 @@
       <c r="E34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="3">
         <v>100</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="3">
         <f>(23.49+17.88)/2</f>
         <v>20.684999999999999</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="3">
         <v>98.8</v>
       </c>
     </row>
@@ -1605,16 +1601,16 @@
       <c r="E35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="3">
         <v>92.7</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="3">
         <v>52.8</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="3">
         <v>99.2</v>
       </c>
     </row>
@@ -1634,18 +1630,18 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="3">
         <f>(100+99.9+99.9)/3</f>
         <v>99.933333333333337</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="3">
         <f>(74.2+72.2+121.2)/3</f>
         <v>89.2</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="3">
         <f>(99.1+99.2+99.2)/3</f>
         <v>99.166666666666671</v>
       </c>

--- a/metadata/OtherViruses_known.xlsx
+++ b/metadata/OtherViruses_known.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/papers/OC_Figures/Old_Collections_Figures/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/papers/github_copy/Old_Collections_Figures/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A167916-D5A3-F04C-AC6E-9B0828E17B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C463169-3452-1F44-B200-F63C8580C425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="34640" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31260" yWindow="1160" windowWidth="34640" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OtherViruses_known" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="181">
   <si>
     <t>known</t>
   </si>
@@ -482,6 +482,99 @@
   </si>
   <si>
     <t>2.00E-03 - 2.61E-02</t>
+  </si>
+  <si>
+    <t>7.13E-05</t>
+  </si>
+  <si>
+    <t>6.36E-06</t>
+  </si>
+  <si>
+    <t>4.11E-04</t>
+  </si>
+  <si>
+    <t>4.88E-04</t>
+  </si>
+  <si>
+    <t>9.21E-06</t>
+  </si>
+  <si>
+    <t>1.88E-04</t>
+  </si>
+  <si>
+    <t>3.64E-05</t>
+  </si>
+  <si>
+    <t>5.98E-04</t>
+  </si>
+  <si>
+    <t>5.81E-03</t>
+  </si>
+  <si>
+    <t>1.01E-02</t>
+  </si>
+  <si>
+    <t>1.86E-03</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Positive_Control_1</t>
+  </si>
+  <si>
+    <t>Positive_Control_2</t>
+  </si>
+  <si>
+    <t>Drosophila A virus</t>
+  </si>
+  <si>
+    <t>Thika virus</t>
+  </si>
+  <si>
+    <t>KP969930</t>
+  </si>
+  <si>
+    <t>MH384324</t>
+  </si>
+  <si>
+    <t>MT742164, MT742165, MT742166</t>
+  </si>
+  <si>
+    <t>99.3-100</t>
+  </si>
+  <si>
+    <t>32-36</t>
+  </si>
+  <si>
+    <t>99.8-100</t>
+  </si>
+  <si>
+    <t>15-18</t>
+  </si>
+  <si>
+    <t>KP969926</t>
+  </si>
+  <si>
+    <t>7-13</t>
+  </si>
+  <si>
+    <t>40-47</t>
+  </si>
+  <si>
+    <t>60-75</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>control</t>
   </si>
 </sst>
 </file>
@@ -632,10 +725,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="1"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -980,14 +1073,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1048,9 +1139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1088,7 +1179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1194,7 +1285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1336,7 +1427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1344,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1361,7 +1452,7 @@
     <col min="14" max="14" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1404,8 +1495,11 @@
       <c r="N1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1448,8 +1542,11 @@
       <c r="N2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1486,14 +1583,17 @@
       <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="4">
-        <v>7.1296296296295933E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1518,7 +1618,7 @@
       <c r="H4">
         <v>100</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J4" t="s">
@@ -1533,11 +1633,14 @@
       <c r="M4" t="s">
         <v>118</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1562,7 +1665,7 @@
       <c r="H5">
         <v>100</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="2" t="s">
         <v>125</v>
       </c>
       <c r="J5" t="s">
@@ -1574,14 +1677,17 @@
       <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" t="s">
         <v>119</v>
       </c>
       <c r="N5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1621,11 +1727,14 @@
       <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="4">
-        <v>6.3636363636357434E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1668,8 +1777,11 @@
       <c r="N7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1712,8 +1824,11 @@
       <c r="N8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1756,8 +1871,11 @@
       <c r="N9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1794,14 +1912,17 @@
       <c r="L10" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>121</v>
       </c>
-      <c r="N10" s="4">
-        <v>4.1123595505617941E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1838,14 +1959,17 @@
       <c r="L11" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" t="s">
         <v>113</v>
       </c>
       <c r="N11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1888,8 +2012,11 @@
       <c r="N12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1926,14 +2053,17 @@
       <c r="L13" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" t="s">
         <v>120</v>
       </c>
-      <c r="N13" s="4">
-        <v>4.8846153846153874E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1970,14 +2100,17 @@
       <c r="L14" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" t="s">
         <v>114</v>
       </c>
       <c r="N14" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2014,14 +2147,17 @@
       <c r="L15" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" t="s">
         <v>109</v>
       </c>
       <c r="N15" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2064,8 +2200,11 @@
       <c r="N16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2105,11 +2244,14 @@
       <c r="M17" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="4">
-        <v>9.2105263157885758E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2152,8 +2294,11 @@
       <c r="N18" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2190,14 +2335,17 @@
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" t="s">
         <v>122</v>
       </c>
-      <c r="N19" s="4">
-        <v>1.8787878787878711E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2240,8 +2388,11 @@
       <c r="N20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2284,8 +2435,11 @@
       <c r="N21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2322,14 +2476,17 @@
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" t="s">
         <v>112</v>
       </c>
       <c r="N22" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2369,11 +2526,14 @@
       <c r="M23" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="4">
-        <v>3.6363636363636879E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2398,7 +2558,7 @@
       <c r="H24">
         <v>100</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="1" t="s">
         <v>126</v>
       </c>
       <c r="J24" t="s">
@@ -2410,14 +2570,17 @@
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" t="s">
         <v>115</v>
       </c>
       <c r="N24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2454,14 +2617,17 @@
       <c r="L25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" t="s">
         <v>110</v>
       </c>
-      <c r="N25" s="4">
-        <v>5.979166666666676E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2498,14 +2664,17 @@
       <c r="L26" t="s">
         <v>19</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" t="s">
         <v>111</v>
       </c>
-      <c r="N26" s="4">
-        <v>5.8125000000000069E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2545,11 +2714,14 @@
       <c r="M27" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="4">
-        <v>1.0094117647058823E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2586,14 +2758,17 @@
       <c r="L28" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" t="s">
         <v>116</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N28" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2636,8 +2811,11 @@
       <c r="N29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2674,14 +2852,17 @@
       <c r="L30" t="s">
         <v>23</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" t="s">
         <v>75</v>
       </c>
-      <c r="N30" s="4">
-        <v>1.8555555555555573E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2724,8 +2905,11 @@
       <c r="N31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2762,14 +2946,17 @@
       <c r="L32" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" t="s">
         <v>116</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -2812,8 +2999,11 @@
       <c r="N33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2856,24 +3046,435 @@
       <c r="N34" t="s">
         <v>18</v>
       </c>
+      <c r="O34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>2022</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35" t="s">
+        <v>176</v>
+      </c>
+      <c r="J35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K35">
+        <v>99</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" t="s">
+        <v>166</v>
+      </c>
+      <c r="N35" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>2022</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>99.5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" t="s">
+        <v>168</v>
+      </c>
+      <c r="N36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>2022</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <v>99.6</v>
+      </c>
+      <c r="I37">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>2022</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38">
+        <v>95.8</v>
+      </c>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" t="s">
+        <v>167</v>
+      </c>
+      <c r="N38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>2022</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39" t="s">
+        <v>175</v>
+      </c>
+      <c r="J39" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39">
+        <v>98.9</v>
+      </c>
+      <c r="L39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" t="s">
+        <v>173</v>
+      </c>
+      <c r="N39" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>2022</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <v>99.1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" t="s">
+        <v>171</v>
+      </c>
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" t="s">
+        <v>168</v>
+      </c>
+      <c r="N40" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>2022</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>97.6</v>
+      </c>
+      <c r="I41">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42">
+        <v>99.6</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42">
+        <v>95.8</v>
+      </c>
+      <c r="L42" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N42" t="s">
+        <v>18</v>
+      </c>
+      <c r="O42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>2022</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43">
+        <v>15.8</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J43" t="s">
+        <v>165</v>
+      </c>
+      <c r="K43">
+        <v>88.1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N43" t="s">
+        <v>18</v>
+      </c>
+      <c r="O43" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M15" r:id="rId1" tooltip="Show report for MH384377.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/MH384377.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=X9XMB20P016" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M25" r:id="rId2" tooltip="Show report for JX220408.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/JX220408.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=X9XZGS00013" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M26" r:id="rId3" tooltip="Show report for MH384285.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/MH384285.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=X9Y4VATH016" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M30" r:id="rId4" tooltip="Show report for OK188767.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/OK188767.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=X9Y7J8P3016" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M22" r:id="rId5" tooltip="Show report for MT742168.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/MT742168.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=X9YHH5YZ01N" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M5" r:id="rId6" tooltip="Show report for OR729093.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/OR729093.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=XAAMA64K013" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M11" r:id="rId7" tooltip="Show report for MT742164.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/MT742164.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=XAAVAXJR013" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M14" r:id="rId8" tooltip="Show report for OR729094.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/OR729094.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=XAB1TK4Z013" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M24" r:id="rId9" tooltip="Show report for MH384303.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/MH384303.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=XAB9YPVP016" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M32" r:id="rId10" tooltip="Show report for MW976823.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/MW976823.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=XABMNCPT016" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M28" r:id="rId11" tooltip="Show report for MH384283.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/MH384283.1?report=genbank&amp;log$=nucltop&amp;blast_rank=2&amp;RID=XABFJY5U013" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M10" r:id="rId12" tooltip="Show report for MH384367.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/MH384367.1?report=genbank&amp;log$=nucltop&amp;blast_rank=2&amp;RID=XU4UXR0V013" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M19" r:id="rId13" tooltip="Show report for MH384306.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/MH384306.1?report=genbank&amp;log$=nucltop&amp;blast_rank=18&amp;RID=XU548CVZ013" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M3" r:id="rId14" tooltip="Show report for KY810785.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/KY810785.1?report=genbank&amp;log$=nucltop&amp;blast_rank=7&amp;RID=XU539T95013" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-  </hyperlinks>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>